--- a/info/codebook breast cancer.xlsx
+++ b/info/codebook breast cancer.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca Bravi\Nextcloud\Didattica\DSE - Lab Nutritional Epidemiology\materiali corso\Breast_cancer_group1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10dd569e7429ee82/Documenti/GitHub/nutritional-epidemiology/info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_BDBDC52447A71FD1D5095B9B582A8023F6CFD893" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_BDBDC52447A71FD1D5095B9B582A8023F6CFD893" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7C473A46-8F13-47EC-BEEB-AF59DF91E5F7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17434" windowHeight="8614" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="9340" windowHeight="10810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3242,7 +3242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3372,7 +3372,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3656,14 +3656,14 @@
       <selection activeCell="L464" sqref="L464"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="92.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="56.1796875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="92.81640625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3685,14 +3685,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45">
+    <row r="9" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30">
+    <row r="13" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>40</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>42</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30">
+    <row r="18" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30">
+    <row r="19" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>50</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>53</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>55</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30">
+    <row r="23" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>58</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>61</v>
       </c>
@@ -3923,14 +3923,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>65</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>68</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>71</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>77</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>79</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>81</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>85</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>87</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>89</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>92</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>95</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>97</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>99</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>101</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>102</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>103</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30">
+    <row r="44" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>104</v>
       </c>
@@ -4139,14 +4139,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>107</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>110</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>113</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>115</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>117</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>119</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>121</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>123</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>125</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>128</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>130</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>132</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="30">
+    <row r="58" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>134</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>137</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>140</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>142</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>144</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>146</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>148</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>150</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>153</v>
       </c>
@@ -4377,14 +4377,14 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" ht="30">
+    <row r="68" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>157</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="30">
+    <row r="69" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>160</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="30">
+    <row r="70" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>162</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30">
+    <row r="71" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>164</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="30">
+    <row r="72" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>166</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30">
+    <row r="73" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>168</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="30">
+    <row r="74" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>170</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="30">
+    <row r="75" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>172</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30">
+    <row r="76" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>174</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="30">
+    <row r="77" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>176</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>178</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>181</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>184</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>186</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>188</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>191</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>194</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="s">
         <v>197</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>200</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>202</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>204</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>206</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>208</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>210</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>212</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>214</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>216</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
         <v>218</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
         <v>221</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="12" t="s">
         <v>223</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>226</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>228</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>230</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
         <v>232</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>234</v>
       </c>
@@ -4769,14 +4769,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
         <v>236</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>237</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>240</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="30">
+    <row r="106" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>242</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>244</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>246</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>248</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>251</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>253</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>255</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>257</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>259</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>261</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>263</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>265</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>267</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="30">
+    <row r="119" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>269</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="30">
+    <row r="120" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>271</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>273</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>275</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>277</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>279</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="12" t="s">
         <v>281</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>283</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>285</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>287</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>289</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>291</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>293</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>294</v>
       </c>
@@ -5095,14 +5095,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>295</v>
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>296</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>298</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>300</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>302</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>304</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>306</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="30">
+    <row r="140" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>308</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="30">
+    <row r="141" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>310</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>312</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>314</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>316</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>318</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>320</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>322</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>324</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>326</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>328</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>330</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>332</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>334</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>336</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>338</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="30">
+    <row r="156" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>340</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="30">
+    <row r="157" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>342</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>344</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>346</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>348</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>350</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>352</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>354</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>356</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>358</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>360</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="30">
+    <row r="167" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>362</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>364</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>366</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>368</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>370</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="12" t="s">
         <v>372</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>374</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>376</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="30">
+    <row r="175" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>378</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="30">
+    <row r="176" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A176" s="12" t="s">
         <v>380</v>
       </c>
@@ -5575,14 +5575,14 @@
         <v>382</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="7" t="s">
         <v>383</v>
       </c>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
     </row>
-    <row r="178" spans="1:3" ht="30">
+    <row r="178" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>384</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="30">
+    <row r="179" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>386</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>388</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>390</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>392</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>394</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>396</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>398</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>400</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>402</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>404</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>406</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>408</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>410</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="30">
+    <row r="192" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A192" s="12" t="s">
         <v>412</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="30">
+    <row r="193" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>414</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="30">
+    <row r="194" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>417</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="30">
+    <row r="195" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A195" s="12" t="s">
         <v>419</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="30">
+    <row r="196" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>422</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="30">
+    <row r="197" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>424</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="30">
+    <row r="198" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>426</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="30">
+    <row r="199" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>428</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="30">
+    <row r="200" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>430</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="30">
+    <row r="201" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A201" s="12" t="s">
         <v>432</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="30">
+    <row r="202" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>435</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="30">
+    <row r="203" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>437</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="30">
+    <row r="204" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>439</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="30">
+    <row r="205" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>441</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="30">
+    <row r="206" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>443</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="30">
+    <row r="207" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>445</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="30">
+    <row r="208" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>447</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="12" t="s">
         <v>449</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>451</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>453</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="30">
+    <row r="212" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>455</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="12" t="s">
         <v>457</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>458</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>459</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="30">
+    <row r="216" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>460</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
         <v>461</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>463</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
         <v>465</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>467</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="12" t="s">
         <v>469</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
         <v>471</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>473</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="12" t="s">
         <v>475</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
         <v>477</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
         <v>479</v>
       </c>
@@ -6121,14 +6121,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="7" t="s">
         <v>481</v>
       </c>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
         <v>482</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="s">
         <v>484</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>486</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
         <v>488</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
         <v>490</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>492</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
         <v>494</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="30">
+    <row r="235" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>496</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="30">
+    <row r="236" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="s">
         <v>498</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="30">
+    <row r="237" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>500</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="30">
+    <row r="238" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>502</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="30">
+    <row r="239" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A239" s="12" t="s">
         <v>504</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="30">
+    <row r="240" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>507</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="30">
+    <row r="241" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>509</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="30">
+    <row r="242" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>511</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="30">
+    <row r="243" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>513</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="30">
+    <row r="244" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A244" s="5" t="s">
         <v>515</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="12" t="s">
         <v>516</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>518</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
         <v>520</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="12" t="s">
         <v>522</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>523</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
         <v>524</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
         <v>525</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
         <v>527</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="5" t="s">
         <v>529</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="30">
+    <row r="254" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A254" s="5" t="s">
         <v>531</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="30">
+    <row r="255" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
         <v>533</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="30">
+    <row r="256" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
         <v>535</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
         <v>537</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="30">
+    <row r="258" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A258" s="5" t="s">
         <v>539</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="5" t="s">
         <v>541</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="5" t="s">
         <v>543</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="5" t="s">
         <v>545</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="5" t="s">
         <v>547</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="30">
+    <row r="263" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A263" s="5" t="s">
         <v>549</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="12" t="s">
         <v>551</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="5" t="s">
         <v>553</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="5" t="s">
         <v>555</v>
       </c>
@@ -6557,14 +6557,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="7" t="s">
         <v>557</v>
       </c>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="5" t="s">
         <v>558</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="5" t="s">
         <v>561</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="5" t="s">
         <v>564</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="30">
+    <row r="271" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A271" s="12" t="s">
         <v>567</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="5" t="s">
         <v>570</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="5" t="s">
         <v>572</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="5" t="s">
         <v>574</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="12" t="s">
         <v>576</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="12" t="s">
         <v>579</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="5" t="s">
         <v>581</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="5" t="s">
         <v>583</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="5" t="s">
         <v>585</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="30">
+    <row r="280" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A280" s="5" t="s">
         <v>588</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A281" s="5" t="s">
         <v>590</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="5" t="s">
         <v>592</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="5" t="s">
         <v>594</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="5" t="s">
         <v>596</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="5" t="s">
         <v>598</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="5" t="s">
         <v>600</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="5" t="s">
         <v>602</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="30">
+    <row r="288" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A288" s="5" t="s">
         <v>604</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="30">
+    <row r="289" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A289" s="5" t="s">
         <v>606</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="12" t="s">
         <v>608</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="5" t="s">
         <v>610</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="5" t="s">
         <v>612</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="30">
+    <row r="293" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A293" s="5" t="s">
         <v>614</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="5" t="s">
         <v>616</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="30.95">
+    <row r="295" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A295" s="16" t="s">
         <v>618</v>
       </c>
@@ -6872,14 +6872,14 @@
         <v>620</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" s="7" t="s">
         <v>621</v>
       </c>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" s="5" t="s">
         <v>622</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="12" t="s">
         <v>624</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A299" s="12" t="s">
         <v>626</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" s="5" t="s">
         <v>628</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="12" t="s">
         <v>630</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="12" t="s">
         <v>632</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="12" t="s">
         <v>634</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" s="12" t="s">
         <v>636</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" s="5" t="s">
         <v>638</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" s="12" t="s">
         <v>640</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" s="5" t="s">
         <v>643</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="30">
+    <row r="308" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A308" s="12" t="s">
         <v>645</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A309" s="5" t="s">
         <v>647</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" s="5" t="s">
         <v>648</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" s="12" t="s">
         <v>650</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" s="5" t="s">
         <v>651</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" s="5" t="s">
         <v>653</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" s="5" t="s">
         <v>655</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" s="12" t="s">
         <v>657</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" s="12" t="s">
         <v>659</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" s="12" t="s">
         <v>661</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" s="12" t="s">
         <v>663</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" s="12" t="s">
         <v>665</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" s="12" t="s">
         <v>667</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" s="12" t="s">
         <v>669</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" s="12" t="s">
         <v>671</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" s="12" t="s">
         <v>673</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A324" s="12" t="s">
         <v>675</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="30">
+    <row r="325" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A325" s="12" t="s">
         <v>677</v>
       </c>
@@ -7198,14 +7198,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" s="7" t="s">
         <v>679</v>
       </c>
       <c r="B326" s="17"/>
       <c r="C326" s="6"/>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" s="12" t="s">
         <v>680</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" s="5" t="s">
         <v>683</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="30">
+    <row r="329" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A329" s="12" t="s">
         <v>685</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" s="5" t="s">
         <v>688</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" s="5" t="s">
         <v>691</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" s="5" t="s">
         <v>693</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" s="5" t="s">
         <v>695</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="30">
+    <row r="334" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A334" s="12" t="s">
         <v>697</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" s="5" t="s">
         <v>698</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" s="5" t="s">
         <v>699</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" s="5" t="s">
         <v>700</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" s="5" t="s">
         <v>701</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="30">
+    <row r="339" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A339" s="12" t="s">
         <v>702</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" s="5" t="s">
         <v>703</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" s="5" t="s">
         <v>704</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" s="5" t="s">
         <v>705</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" s="5" t="s">
         <v>706</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="30">
+    <row r="344" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A344" s="12" t="s">
         <v>707</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" s="5" t="s">
         <v>708</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" s="5" t="s">
         <v>709</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" s="5" t="s">
         <v>710</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" s="5" t="s">
         <v>711</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="30">
+    <row r="349" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A349" s="12" t="s">
         <v>712</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" s="5" t="s">
         <v>713</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" s="5" t="s">
         <v>714</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" s="5" t="s">
         <v>715</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" s="5" t="s">
         <v>716</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="30">
+    <row r="354" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A354" s="12" t="s">
         <v>717</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" s="5" t="s">
         <v>718</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" s="5" t="s">
         <v>719</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" s="5" t="s">
         <v>720</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" s="5" t="s">
         <v>721</v>
       </c>
@@ -7557,19 +7557,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" s="5"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" s="7" t="s">
         <v>722</v>
       </c>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" s="5" t="s">
         <v>723</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" s="5" t="s">
         <v>725</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="30">
+    <row r="363" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A363" s="5" t="s">
         <v>728</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" s="5" t="s">
         <v>731</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" s="5" t="s">
         <v>734</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" s="5" t="s">
         <v>736</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" s="5" t="s">
         <v>739</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" s="5" t="s">
         <v>741</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" s="5" t="s">
         <v>743</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" s="5" t="s">
         <v>745</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" s="5" t="s">
         <v>747</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="5" t="s">
         <v>750</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" s="5" t="s">
         <v>752</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" s="5" t="s">
         <v>754</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" s="5" t="s">
         <v>756</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" s="5" t="s">
         <v>758</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" s="5" t="s">
         <v>760</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" s="5" t="s">
         <v>762</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="30">
+    <row r="379" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A379" s="5" t="s">
         <v>764</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="30">
+    <row r="380" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A380" s="5" t="s">
         <v>767</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="30">
+    <row r="381" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A381" s="5" t="s">
         <v>769</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="30">
+    <row r="382" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A382" s="5" t="s">
         <v>771</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="30">
+    <row r="383" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A383" s="5" t="s">
         <v>773</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="30">
+    <row r="384" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A384" s="5" t="s">
         <v>775</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="30">
+    <row r="385" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A385" s="5" t="s">
         <v>777</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="30">
+    <row r="386" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A386" s="5" t="s">
         <v>779</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" s="5" t="s">
         <v>781</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="30">
+    <row r="388" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A388" s="5" t="s">
         <v>783</v>
       </c>
@@ -7877,14 +7877,14 @@
         <v>785</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" s="7" t="s">
         <v>786</v>
       </c>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A390" s="12" t="s">
         <v>787</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391" s="12" t="s">
         <v>789</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="45">
+    <row r="392" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A392" s="12" t="s">
         <v>791</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393" s="12" t="s">
         <v>794</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394" s="12" t="s">
         <v>796</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" s="12" t="s">
         <v>798</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="45">
+    <row r="396" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A396" s="12" t="s">
         <v>800</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" s="12" t="s">
         <v>802</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" s="12" t="s">
         <v>804</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" s="12" t="s">
         <v>805</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="45">
+    <row r="400" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A400" s="12" t="s">
         <v>806</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401" s="12" t="s">
         <v>807</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A402" s="12" t="s">
         <v>809</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A403" s="12" t="s">
         <v>811</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="45">
+    <row r="404" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A404" s="12" t="s">
         <v>813</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A405" s="12" t="s">
         <v>815</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A406" s="12" t="s">
         <v>816</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A407" s="12" t="s">
         <v>818</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="45">
+    <row r="408" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A408" s="12" t="s">
         <v>820</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A409" s="12" t="s">
         <v>822</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A410" s="12" t="s">
         <v>824</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A411" s="12" t="s">
         <v>826</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="45">
+    <row r="412" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A412" s="12" t="s">
         <v>828</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A413" s="12" t="s">
         <v>830</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A414" s="12" t="s">
         <v>832</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A415" s="12" t="s">
         <v>834</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="45">
+    <row r="416" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A416" s="12" t="s">
         <v>836</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A417" s="12" t="s">
         <v>838</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A418" s="12" t="s">
         <v>840</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A419" s="12" t="s">
         <v>842</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="45">
+    <row r="420" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A420" s="12" t="s">
         <v>844</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A421" s="12" t="s">
         <v>846</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A422" s="12" t="s">
         <v>848</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A423" s="12" t="s">
         <v>850</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="45">
+    <row r="424" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A424" s="12" t="s">
         <v>852</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A425" s="12" t="s">
         <v>854</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A426" s="12" t="s">
         <v>856</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A427" s="12" t="s">
         <v>858</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="45">
+    <row r="428" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A428" s="12" t="s">
         <v>860</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A429" s="12" t="s">
         <v>862</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A430" s="12" t="s">
         <v>864</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A431" s="12" t="s">
         <v>866</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A432" s="12" t="s">
         <v>868</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A433" s="12" t="s">
         <v>870</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A434" s="12" t="s">
         <v>872</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A435" s="12" t="s">
         <v>875</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="30">
+    <row r="436" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A436" s="11" t="s">
         <v>877</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A437" s="12" t="s">
         <v>879</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A438" s="12" t="s">
         <v>881</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A439" s="12" t="s">
         <v>883</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A440" s="12" t="s">
         <v>885</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A441" s="12" t="s">
         <v>887</v>
       </c>
@@ -8456,12 +8456,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A442" s="7"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A443" s="5" t="s">
         <v>889</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A444" s="5" t="s">
         <v>892</v>
       </c>
@@ -8483,24 +8483,24 @@
         <v>139</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A445" s="5"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A446" s="5"/>
       <c r="B446" s="18"/>
       <c r="C446" s="3"/>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A447" s="7" t="s">
         <v>894</v>
       </c>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A448" s="20" t="s">
         <v>895</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" s="20" t="s">
         <v>897</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" s="20" t="s">
         <v>899</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" s="20" t="s">
         <v>901</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" s="20" t="s">
         <v>903</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" s="20" t="s">
         <v>905</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" s="20" t="s">
         <v>907</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" s="20" t="s">
         <v>909</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" s="20" t="s">
         <v>911</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" s="20" t="s">
         <v>913</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" s="20" t="s">
         <v>915</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" s="20" t="s">
         <v>917</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" s="20" t="s">
         <v>919</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" s="20" t="s">
         <v>921</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" s="20" t="s">
         <v>923</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" s="20" t="s">
         <v>925</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" s="20" t="s">
         <v>927</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" s="20" t="s">
         <v>929</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" s="20" t="s">
         <v>931</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" s="20" t="s">
         <v>933</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" s="20" t="s">
         <v>935</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" s="20" t="s">
         <v>937</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" s="20" t="s">
         <v>939</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" s="20" t="s">
         <v>941</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" s="20" t="s">
         <v>943</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" s="20" t="s">
         <v>945</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" s="20" t="s">
         <v>947</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" s="20" t="s">
         <v>949</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" s="20" t="s">
         <v>951</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" s="20" t="s">
         <v>953</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" s="20" t="s">
         <v>955</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" s="20" t="s">
         <v>957</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" s="20" t="s">
         <v>959</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" s="20" t="s">
         <v>961</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" s="20" t="s">
         <v>963</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" s="20" t="s">
         <v>965</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" s="20" t="s">
         <v>967</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" s="20" t="s">
         <v>969</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" s="20" t="s">
         <v>971</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" s="20" t="s">
         <v>973</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" s="20" t="s">
         <v>975</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" s="20" t="s">
         <v>977</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" s="20" t="s">
         <v>979</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" s="20" t="s">
         <v>981</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" s="20" t="s">
         <v>983</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" s="20" t="s">
         <v>985</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" s="20" t="s">
         <v>987</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" s="20" t="s">
         <v>989</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" s="20" t="s">
         <v>991</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" s="20" t="s">
         <v>993</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" s="20" t="s">
         <v>995</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" s="20" t="s">
         <v>996</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" s="20" t="s">
         <v>997</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" s="20" t="s">
         <v>999</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" s="20" t="s">
         <v>1001</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" s="20" t="s">
         <v>1002</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" s="20" t="s">
         <v>1003</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="505" spans="1:2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" s="20" t="s">
         <v>1004</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" s="20" t="s">
         <v>1005</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="507" spans="1:2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" s="20" t="s">
         <v>1006</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="508" spans="1:2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" s="20" t="s">
         <v>1007</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" s="20" t="s">
         <v>1009</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" s="20" t="s">
         <v>1011</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" s="20" t="s">
         <v>1013</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="512" spans="1:2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" s="20" t="s">
         <v>1015</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="513" spans="1:2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" s="20" t="s">
         <v>1017</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="514" spans="1:2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" s="20" t="s">
         <v>1019</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="515" spans="1:2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" s="20" t="s">
         <v>1021</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="516" spans="1:2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" s="20" t="s">
         <v>1023</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" s="20" t="s">
         <v>1025</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" s="20" t="s">
         <v>1027</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A519" s="20" t="s">
         <v>1029</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="520" spans="1:2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A520" s="20" t="s">
         <v>1031</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="521" spans="1:2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A521" s="20" t="s">
         <v>1033</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="522" spans="1:2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" s="20" t="s">
         <v>1035</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="523" spans="1:2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" s="20" t="s">
         <v>1037</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="524" spans="1:2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" s="20" t="s">
         <v>1039</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="525" spans="1:2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" s="20" t="s">
         <v>1041</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="526" spans="1:2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A526" s="20" t="s">
         <v>1043</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="527" spans="1:2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A527" s="20" t="s">
         <v>1045</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="528" spans="1:2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" s="20" t="s">
         <v>1047</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="529" spans="1:2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" s="20" t="s">
         <v>1049</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="530" spans="1:2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" s="20" t="s">
         <v>1051</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" s="20" t="s">
         <v>1053</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="532" spans="1:2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A532" s="20" t="s">
         <v>1055</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="533" spans="1:2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" s="20" t="s">
         <v>1057</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="534" spans="1:2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" s="20" t="s">
         <v>1059</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="535" spans="1:2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" s="20" t="s">
         <v>1061</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="536" spans="1:2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" s="20" t="s">
         <v>1063</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="537" spans="1:2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" s="20" t="s">
         <v>1065</v>
       </c>
@@ -9226,15 +9226,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010055791A12AD201048920BF72CEFAC2E36" ma:contentTypeVersion="4" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="81418e820cdc95d16f350ed01f8ef146">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d1982674-6633-45a6-8316-7513d6f43342" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="de6847b7bd23b4543601ce75e495c5f1" ns2:_="">
     <xsd:import namespace="d1982674-6633-45a6-8316-7513d6f43342"/>
@@ -9380,6 +9371,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9387,13 +9387,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B74C3A3F-718B-4B5F-90B7-95B1F0A92430}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DABE33-0AC9-4D8C-A7BE-A4DF3F6BE12D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d1982674-6633-45a6-8316-7513d6f43342"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DABE33-0AC9-4D8C-A7BE-A4DF3F6BE12D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B74C3A3F-718B-4B5F-90B7-95B1F0A92430}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF237B6E-4983-4DDF-BEC6-5593110CC33C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF237B6E-4983-4DDF-BEC6-5593110CC33C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>